--- a/Pharma R&D.xlsx
+++ b/Pharma R&D.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Northwest University\M.S. in Data Analytics\Data Analytics Capstone Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B76F0E-F5B6-4466-B76A-BE35AD65BD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8483DC-06EE-4202-A109-BDCA6F536EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ADD3A1FD-1DF0-43C6-8160-E80185D020B4}"/>
+    <workbookView xWindow="2250" yWindow="1050" windowWidth="20550" windowHeight="14550" xr2:uid="{ADD3A1FD-1DF0-43C6-8160-E80185D020B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -205,7 +205,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3187,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7753EF18-5D67-4BA3-8AB0-D8995DAE425B}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3790,7 +3790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949C9789-F5EF-4225-8F5D-540B4D61F17B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
@@ -4300,21 +4300,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D1C001CE62D53428F9ED4C9F8C6499B" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87e4edb1f2fdb3c057fc3748995c338a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49330566-de8b-4ebc-b2c3-87067be52322" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69098e938ebb2f72e5adee135a160414" ns3:_="">
     <xsd:import namespace="49330566-de8b-4ebc-b2c3-87067be52322"/>
@@ -4478,31 +4463,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C32E73E-70D2-4129-8712-DF123082BA7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="49330566-de8b-4ebc-b2c3-87067be52322"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45085992-2386-4DC3-9307-460A45384718}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CE6CE39-1846-4970-93A1-7243C294EBEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4518,4 +4494,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45085992-2386-4DC3-9307-460A45384718}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C32E73E-70D2-4129-8712-DF123082BA7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="49330566-de8b-4ebc-b2c3-87067be52322"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Pharma R&D.xlsx
+++ b/Pharma R&D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8483DC-06EE-4202-A109-BDCA6F536EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0D9298-6244-4D95-9CFD-F77EACCF1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="1050" windowWidth="20550" windowHeight="14550" xr2:uid="{ADD3A1FD-1DF0-43C6-8160-E80185D020B4}"/>
   </bookViews>
